--- a/시험/12.22/테스트명세서.xlsx
+++ b/시험/12.22/테스트명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkit\Desktop\류완석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC64D62-48AC-4897-B4B8-718C6B8B6A65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A042F0-6DAC-4673-B451-9446777C7E4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{B4589019-F27A-4489-B605-1EE5A100A3E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>테스트 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입이 정상적으로 처리되는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정이 정상적으로 이루어지는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제 페이지가 정상적으로 출력되는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,11 +99,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삭제가 정상적으로 이루어지는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터베이스 전환이 정상적으로 이루어지는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보가 DB에 정상적으로 저장되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정된 정보가 DB에 정상적으로 저장되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 확인 메시지가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 확인 메시지가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 결과에 대한 메시지가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 결과에 대한 메시지가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 확인 메시지가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 결과에 대한 메시지가 정상적으로 출력되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 결과가 DB에 정상적으로 반영되는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,13 +514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310C513-3985-42DD-B0A3-DE8F4553472C}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.75" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.875" style="1" bestFit="1" customWidth="1"/>
@@ -505,18 +529,18 @@
     <col min="6" max="16384" width="24.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -528,10 +552,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -545,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -553,150 +577,234 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
